--- a/fileingest/media/files/AP&ISA_202002Feb_Maximo_Resoln_wos_BI_20200310.xlsx
+++ b/fileingest/media/files/AP&ISA_202002Feb_Maximo_Resoln_wos_BI_20200310.xlsx
@@ -1,192 +1,162 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salman\Desktop\DjangoLearning\projects\DataIngestion\filemanagement\fileingest\code\Media\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3291D30F-4216-4FA5-ADEC-BE5832119C83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Resol" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Resol" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resol!$D$1:$F$4</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Resol'!$D$4:$F$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>col7</t>
-  </si>
-  <si>
-    <t>col8</t>
-  </si>
-  <si>
-    <t>col9</t>
-  </si>
-  <si>
-    <t>ac</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="18">
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <color theme="3"/>
       <sz val="18"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <i val="1"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -233,19 +203,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -256,19 +226,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -279,19 +249,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -302,19 +272,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -325,19 +295,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -348,19 +318,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -396,7 +366,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.3999755851924192"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,108 +452,99 @@
     </border>
   </borders>
   <cellStyleXfs count="42">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0"/>
+    <xf borderId="4" fillId="5" fontId="9" numFmtId="0"/>
+    <xf borderId="5" fillId="6" fontId="10" numFmtId="0"/>
+    <xf borderId="4" fillId="6" fontId="11" numFmtId="0"/>
+    <xf borderId="6" fillId="0" fontId="12" numFmtId="0"/>
+    <xf borderId="7" fillId="7" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="8" fillId="8" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0"/>
+    <xf borderId="9" fillId="0" fontId="16" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="11" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="12" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="16" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="17" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="18" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="19" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="20" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="22" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="23" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="26" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="27" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="29" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="32" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="15" name="Title" xfId="1"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="2"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="3"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="4"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="5"/>
+    <cellStyle builtinId="26" name="Good" xfId="6"/>
+    <cellStyle builtinId="27" name="Bad" xfId="7"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="8"/>
+    <cellStyle builtinId="20" name="Input" xfId="9"/>
+    <cellStyle builtinId="21" name="Output" xfId="10"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="11"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="12"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="13"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
+    <cellStyle builtinId="10" name="Note" xfId="15"/>
+    <cellStyle builtinId="53" name="Explanatory Text" xfId="16"/>
+    <cellStyle builtinId="25" name="Total" xfId="17"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="18"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="19"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="21"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="22"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="23"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="24"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="25"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="26"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="27"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="28"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="29"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="30"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="31"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="32"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="33"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="34"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="35"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="36"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="37"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="38"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="39"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="40"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="41"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -883,77 +844,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1048576"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="17.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col customWidth="1" max="4" min="4" style="2" width="17.140625"/>
+    <col customWidth="1" max="16384" min="5" style="2" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>col7</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>col8</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>col9</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>200</v>
+      </c>
     </row>
-    <row r="2" spans="4:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    <row customHeight="1" ht="15.6" r="4" s="2">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="F2" s="1">
-        <v>100</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>300</v>
       </c>
     </row>
-    <row r="3" spans="4:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="4:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>300</v>
-      </c>
-    </row>
+    <row customHeight="1" ht="15.6" r="5" s="2"/>
+    <row customHeight="1" ht="15.6" r="6" s="2"/>
+    <row customHeight="1" ht="15.6" r="7" s="2"/>
   </sheetData>
-  <autoFilter ref="D1:F4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="D4:F7"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>